--- a/Расписание.xlsx
+++ b/Расписание.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="126">
   <si>
     <t>Расписание</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Тихая Н.А.</t>
   </si>
   <si>
-    <t>Выполнение домашнего задания (частн.)</t>
-  </si>
-  <si>
     <t>Панченко И.М.</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Домашнее задание</t>
   </si>
 </sst>
 </file>
@@ -1121,13 +1121,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="83" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
@@ -1143,14 +1143,14 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>47</v>
@@ -1161,7 +1161,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>43</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="Q1" s="4"/>
       <c r="R1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>49</v>
@@ -1220,10 +1220,10 @@
         <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
         <v>9</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1292,16 +1292,16 @@
         <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1312,25 +1312,25 @@
         <v>2</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
         <v>62</v>
       </c>
-      <c r="O7" t="s">
-        <v>63</v>
-      </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1342,24 +1342,24 @@
       </c>
       <c r="C8" s="12"/>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1368,14 +1368,14 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>47</v>
@@ -1386,7 +1386,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>43</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>49</v>
@@ -1424,10 +1424,10 @@
         <v>9</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>49</v>
@@ -1450,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1464,19 +1464,19 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1487,27 +1487,27 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1516,14 +1516,14 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>47</v>
@@ -1534,7 +1534,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>43</v>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>51</v>
@@ -1569,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>48</v>
@@ -1592,7 +1592,7 @@
         <v>48</v>
       </c>
       <c r="P18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>51</v>
@@ -1612,10 +1612,10 @@
         <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1626,22 +1626,22 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" t="s">
         <v>62</v>
       </c>
-      <c r="O20" t="s">
-        <v>63</v>
-      </c>
       <c r="P20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>49</v>
@@ -1661,10 +1661,10 @@
         <v>16</v>
       </c>
       <c r="P21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>50</v>
@@ -1684,10 +1684,10 @@
         <v>5</v>
       </c>
       <c r="P22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1698,24 +1698,24 @@
         <v>14</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>49</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -1749,14 +1749,14 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>47</v>
@@ -1767,7 +1767,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>43</v>
@@ -1781,6 +1781,9 @@
         <v>45</v>
       </c>
       <c r="Q30" s="4"/>
+      <c r="R30" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1800,7 +1803,7 @@
         <v>9</v>
       </c>
       <c r="P31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -1811,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>50</v>
@@ -1823,10 +1826,10 @@
         <v>12</v>
       </c>
       <c r="P32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -1837,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>50</v>
@@ -1849,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="P33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -1860,7 +1863,7 @@
         <v>19</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>51</v>
@@ -1872,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -1886,22 +1889,22 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O35">
         <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -1912,30 +1915,30 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N36" t="s">
+        <v>61</v>
+      </c>
+      <c r="O36" t="s">
         <v>62</v>
       </c>
-      <c r="O36" t="s">
-        <v>63</v>
-      </c>
       <c r="P36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -1944,14 +1947,14 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>47</v>
@@ -1962,7 +1965,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>43</v>
@@ -1976,6 +1979,9 @@
         <v>45</v>
       </c>
       <c r="Q38" s="4"/>
+      <c r="R38" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1985,22 +1991,22 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O39">
         <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2011,10 +2017,10 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L40" t="s">
         <v>56</v>
@@ -2023,10 +2029,10 @@
         <v>9</v>
       </c>
       <c r="P40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2037,7 +2043,7 @@
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>51</v>
@@ -2049,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2063,22 +2069,22 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O42">
         <v>37</v>
       </c>
       <c r="P42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2086,25 +2092,25 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>48</v>
       </c>
       <c r="L43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O43" s="9" t="s">
         <v>48</v>
       </c>
       <c r="P43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2115,22 +2121,22 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O44">
         <v>5</v>
       </c>
       <c r="P44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -2138,30 +2144,30 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O45">
         <v>5</v>
       </c>
       <c r="P45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -2170,14 +2176,14 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>47</v>
@@ -2188,7 +2194,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>43</v>
@@ -2202,6 +2208,9 @@
         <v>45</v>
       </c>
       <c r="Q47" s="4"/>
+      <c r="R47" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -2211,7 +2220,7 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>51</v>
@@ -2223,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2231,22 +2240,22 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="P49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2257,19 +2266,19 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O50">
         <v>12</v>
       </c>
       <c r="P50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2277,25 +2286,25 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N51" t="s">
+        <v>61</v>
+      </c>
+      <c r="O51" t="s">
         <v>62</v>
       </c>
-      <c r="O51" t="s">
-        <v>63</v>
-      </c>
       <c r="P51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2306,10 +2315,10 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L52" t="s">
         <v>56</v>
@@ -2318,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="P52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -2329,19 +2338,19 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O53">
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Расписание.xlsx
+++ b/Расписание.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Шаблоны" sheetId="1" r:id="rId1"/>
-    <sheet name="Расписание" sheetId="3" r:id="rId2"/>
+    <sheet name="Расписание" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="109">
   <si>
     <t>Расписание</t>
   </si>
@@ -39,393 +38,334 @@
     <t>Английский язык</t>
   </si>
   <si>
-    <t>Все предметы</t>
-  </si>
-  <si>
-    <t>Пример 1 дня</t>
-  </si>
-  <si>
     <t>История</t>
   </si>
   <si>
     <t>Биология</t>
   </si>
   <si>
-    <t>ЕНГ</t>
-  </si>
-  <si>
-    <t>Разшифровка: Естественно-научная-грамота</t>
-  </si>
-  <si>
     <t>Литература</t>
   </si>
   <si>
-    <t>Читательская грамотность</t>
-  </si>
-  <si>
-    <t>По сути подготовка к ВПР по русскому языку</t>
-  </si>
-  <si>
     <t>ИЗО</t>
   </si>
   <si>
-    <t>Разшифровка: Изобразительное исскуство</t>
-  </si>
-  <si>
     <t>География</t>
   </si>
   <si>
-    <t>Разговоры о важном</t>
-  </si>
-  <si>
     <t>Физическая культура</t>
   </si>
   <si>
-    <t>ОДНКНР</t>
-  </si>
-  <si>
-    <t>Разшифровка: Основы-Духовно-Нравственной-Культуры</t>
-  </si>
-  <si>
     <t>Математика</t>
   </si>
   <si>
+    <t>Подтвержденно расписание?</t>
+  </si>
+  <si>
+    <t>Кто ведёт данный предмет?</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
+  </si>
+  <si>
+    <t>Время урока?</t>
+  </si>
+  <si>
+    <t>Разгворы о важном</t>
+  </si>
+  <si>
+    <t>Тип дз</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Гибрид</t>
+  </si>
+  <si>
+    <t>Устно</t>
+  </si>
+  <si>
+    <t>Письм.</t>
+  </si>
+  <si>
+    <t>Стр. 3-5 пункт 1 - 3 пересказывать</t>
+  </si>
+  <si>
+    <t>Упр. 17, 18</t>
+  </si>
+  <si>
+    <t>№ 1.34; 1.39(в); 1.40(в);</t>
+  </si>
+  <si>
+    <t>Еременко И.А.</t>
+  </si>
+  <si>
+    <t>Пономарева В.А.</t>
+  </si>
+  <si>
+    <t>Тихая Н.А.</t>
+  </si>
+  <si>
+    <t>Панченко И.М.</t>
+  </si>
+  <si>
+    <t>Решитько Е.В.</t>
+  </si>
+  <si>
+    <t>Жуков В.А.</t>
+  </si>
+  <si>
+    <t>(1 группа)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>8:00 - 8:40</t>
+  </si>
+  <si>
+    <t>9:00 - 9:40</t>
+  </si>
+  <si>
+    <t>10:00 - 10:40</t>
+  </si>
+  <si>
+    <t>11:00 - 11:40</t>
+  </si>
+  <si>
+    <t>12:00 - 12:40</t>
+  </si>
+  <si>
+    <t>12:50 - 13:30</t>
+  </si>
+  <si>
+    <t>13:40 - 14:20</t>
+  </si>
+  <si>
+    <t>Принести форму</t>
+  </si>
+  <si>
+    <t>Учить слова за 2 послед. урока на дикт. И перевести слово сочетания (см. ссылку)</t>
+  </si>
+  <si>
+    <t>Дописать термины и выучить их</t>
+  </si>
+  <si>
+    <t>П. 1 чит. Учить подразделы ботаники, будет биологический дикт.</t>
+  </si>
+  <si>
+    <t>Заданно от этого дня</t>
+  </si>
+  <si>
+    <t>пар.  1 Стр. 17 упр: 4,5,7 (На листочках)</t>
+  </si>
+  <si>
+    <t>упр. 36 доделать</t>
+  </si>
+  <si>
+    <t>№ 1.80; 1.81; 1.79 + теория С. 19, выучить и записать в тетрадь по теории</t>
+  </si>
+  <si>
+    <t>P. 6 Ex. 3 Слова учить а1 (+ плюс те что учили до этого) на диктант 😥</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Пон.</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Фоменко Т.М.</t>
+  </si>
+  <si>
+    <t>завести контурную карту и читать параграф какой-то</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>упр. 1.78; 1.83; 1.82</t>
+  </si>
+  <si>
+    <t>Дорисовать рисунок</t>
+  </si>
+  <si>
+    <t>стр. 6-8 читать, знать содержание</t>
+  </si>
+  <si>
+    <t>Параграф 2. пункт 1-2 читать</t>
+  </si>
+  <si>
+    <t>Дать определения (см. ссылку). Параграф 30, читать.</t>
+  </si>
+  <si>
+    <t>Дата: 10.09.2025</t>
+  </si>
+  <si>
+    <t>Дата: 09.09.2025</t>
+  </si>
+  <si>
+    <t>Дата: 08.09.2025</t>
+  </si>
+  <si>
+    <t>Дорисовать рисунок (Рисунок - это ваша мечта)</t>
+  </si>
+  <si>
+    <t>Параграф 3.</t>
+  </si>
+  <si>
+    <t>Стр. 6 упр. 3; Карточка. (См. фото)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Упр. 1.92; На странице 26: Проверочная работа #1: упр. 1,2; Проверочная работа #2: Упр. 1. (Примечания: Будет КР; Приходить без учебников)</t>
+  </si>
+  <si>
+    <t>Параграф 30 повторять</t>
+  </si>
+  <si>
+    <t>Дата: 15.09.2025</t>
+  </si>
+  <si>
+    <t>Упр. 45.</t>
+  </si>
+  <si>
+    <t>Упр: 1.85; 1.89; 1.93.</t>
+  </si>
+  <si>
+    <t>С. 6 чит.; Карточка</t>
+  </si>
+  <si>
+    <t>Термины учить, которые писали в тетрадях</t>
+  </si>
+  <si>
+    <t>Параграф 3. Выучить органелы, типы пластов и перерисовать клетку</t>
+  </si>
+  <si>
+    <t>Упр. 1.86; 1.94; 1.96 (а)</t>
+  </si>
+  <si>
+    <t>Упр. 52</t>
+  </si>
+  <si>
+    <t>Слова учить; Карточка, номера: 2, 7, 10.</t>
+  </si>
+  <si>
+    <t>Физ-ра</t>
+  </si>
+  <si>
+    <t>Лит-ра</t>
+  </si>
+  <si>
+    <t>Прочтитать параграф второй про Византаю</t>
+  </si>
+  <si>
+    <t>Параграф 33. Упражнения после параграфа: 2,3,4.</t>
+  </si>
+  <si>
+    <t>Упр. 1.87; 1.91; 1.96(б)</t>
+  </si>
+  <si>
+    <t>Параграф 3 читать</t>
+  </si>
+  <si>
+    <t>Упр. 68</t>
+  </si>
+  <si>
+    <t>Стр. 16-24 знать содержание</t>
+  </si>
+  <si>
+    <t>Англиский язык</t>
+  </si>
+  <si>
+    <t>Дорисовать рисунок (Рисунок - это ваша мечта, цель.)</t>
+  </si>
+  <si>
+    <t>Устно / ?</t>
+  </si>
+  <si>
+    <t>Кателина Е.В.</t>
+  </si>
+  <si>
+    <t>Дата: 17.09.2025</t>
+  </si>
+  <si>
+    <t>Дата: 16.09.2025</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Домашнее задание</t>
+  </si>
+  <si>
+    <t>(Возможно будет дополнено или измен.)</t>
+  </si>
+  <si>
+    <t>СР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Упр. 1.122, 1.132, 1.108 теория: стр. 10-11, 27-28</t>
+  </si>
+  <si>
+    <t>Дз не было задано, был классный час</t>
+  </si>
+  <si>
+    <t>Карточка доделать все номера и слова учить (которые проверяли устно на уроке) письменно</t>
+  </si>
+  <si>
+    <t>Параграф 4</t>
+  </si>
+  <si>
+    <t>Стр 30 письм. вопрос 8. Стр. 32-38 чит. + пересказ</t>
+  </si>
+  <si>
     <t>Труды</t>
   </si>
   <si>
-    <t>Музыка</t>
-  </si>
-  <si>
-    <t>Кубановедение</t>
-  </si>
-  <si>
-    <t>Самые частые</t>
-  </si>
-  <si>
-    <t>5 раз в неделю (Каждый день)</t>
-  </si>
-  <si>
-    <t>Частые</t>
-  </si>
-  <si>
-    <t>3 раза в неделю</t>
-  </si>
-  <si>
-    <t>Менее частые</t>
-  </si>
-  <si>
-    <t>2 раза в неделю</t>
-  </si>
-  <si>
-    <t>Редкие</t>
-  </si>
-  <si>
-    <t>1 раз в неделю</t>
-  </si>
-  <si>
-    <t>Дата: 13.03.2025</t>
-  </si>
-  <si>
-    <t>Выполнение домашнего задания</t>
-  </si>
-  <si>
-    <t>Выполнено</t>
-  </si>
-  <si>
-    <t>Не выполнено</t>
-  </si>
-  <si>
-    <t>Частично выполнено</t>
-  </si>
-  <si>
-    <t>(Например)</t>
-  </si>
-  <si>
-    <t>Домашнее задание на данный предмет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рюкзак собран? </t>
-  </si>
-  <si>
-    <t>Да\Нет</t>
-  </si>
-  <si>
-    <t>Подтвержденно расписание?</t>
-  </si>
-  <si>
-    <t>Оценки</t>
+    <t>↑↑↑↑↑↑↑↑↑</t>
+  </si>
+  <si>
+    <t>Сделать парашют (из бумаги или полиэтиленового пакета) либо чертёж подставки для телефона</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Верченко И.Н.</t>
+  </si>
+  <si>
+    <t>1(Мужск.)</t>
   </si>
   <si>
     <t>Четверг</t>
   </si>
   <si>
-    <t>Кто ведёт данный предмет?</t>
-  </si>
-  <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
-    <t>Время урока?</t>
-  </si>
-  <si>
-    <t>Разгворы о важном</t>
-  </si>
-  <si>
-    <t>Тип дз</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Гибрид</t>
-  </si>
-  <si>
-    <t>Устно</t>
-  </si>
-  <si>
-    <t>Письм.</t>
-  </si>
-  <si>
-    <t>Стр. 3-5 пункт 1 - 3 пересказывать</t>
-  </si>
-  <si>
-    <t>Упр. 17, 18</t>
-  </si>
-  <si>
-    <t>№ 1.34; 1.39(в); 1.40(в);</t>
-  </si>
-  <si>
-    <t>Еременко И.А.</t>
-  </si>
-  <si>
-    <t>Пономарева В.А.</t>
-  </si>
-  <si>
-    <t>Тихая Н.А.</t>
-  </si>
-  <si>
-    <t>Панченко И.М.</t>
-  </si>
-  <si>
-    <t>Решитько Е.В.</t>
-  </si>
-  <si>
-    <t>Жуков В.А.</t>
-  </si>
-  <si>
-    <t>(1 группа)</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>8:00 - 8:40</t>
-  </si>
-  <si>
-    <t>9:00 - 9:40</t>
-  </si>
-  <si>
-    <t>10:00 - 10:40</t>
-  </si>
-  <si>
-    <t>11:00 - 11:40</t>
-  </si>
-  <si>
-    <t>12:00 - 12:40</t>
-  </si>
-  <si>
-    <t>12:50 - 13:30</t>
-  </si>
-  <si>
-    <t>13:40 - 14:20</t>
-  </si>
-  <si>
-    <t>Принести форму</t>
-  </si>
-  <si>
-    <t>Учить слова за 2 послед. урока на дикт. И перевести слово сочетания (см. ссылку)</t>
-  </si>
-  <si>
-    <t>Дописать термины и выучить их</t>
-  </si>
-  <si>
-    <t>П. 1 чит. Учить подразделы ботаники, будет биологический дикт.</t>
-  </si>
-  <si>
-    <t>Заданно от этого дня</t>
-  </si>
-  <si>
-    <t>пар.  1 Стр. 17 упр: 4,5,7 (На листочках)</t>
-  </si>
-  <si>
-    <t>упр. 36 доделать</t>
-  </si>
-  <si>
-    <t>№ 1.80; 1.81; 1.79 + теория С. 19, выучить и записать в тетрадь по теории</t>
-  </si>
-  <si>
-    <t>P. 6 Ex. 3 Слова учить а1 (+ плюс те что учили до этого) на диктант 😥</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Пон.</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Фоменко Т.М.</t>
-  </si>
-  <si>
-    <t>завести контурную карту и читать параграф какой-то</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>упр. 1.78; 1.83; 1.82</t>
-  </si>
-  <si>
-    <t>Дорисовать рисунок</t>
-  </si>
-  <si>
-    <t>стр. 6-8 читать, знать содержание</t>
-  </si>
-  <si>
-    <t>Параграф 2. пункт 1-2 читать</t>
-  </si>
-  <si>
-    <t>Дать определения (см. ссылку). Параграф 30, читать.</t>
-  </si>
-  <si>
-    <t>Дата: 10.09.2025</t>
-  </si>
-  <si>
-    <t>Дата: 09.09.2025</t>
-  </si>
-  <si>
-    <t>Дата: 08.09.2025</t>
-  </si>
-  <si>
-    <t>Дорисовать рисунок (Рисунок - это ваша мечта)</t>
-  </si>
-  <si>
-    <t>Параграф 3.</t>
-  </si>
-  <si>
-    <t>Стр. 6 упр. 3; Карточка. (См. фото)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Упр. 1.92; На странице 26: Проверочная работа #1: упр. 1,2; Проверочная работа #2: Упр. 1. (Примечания: Будет КР; Приходить без учебников)</t>
-  </si>
-  <si>
-    <t>Параграф 30 повторять</t>
-  </si>
-  <si>
-    <t>Дата: 15.09.2025</t>
-  </si>
-  <si>
-    <t>Упр. 45.</t>
-  </si>
-  <si>
-    <t>Упр: 1.85; 1.89; 1.93.</t>
-  </si>
-  <si>
-    <t>С. 6 чит.; Карточка</t>
-  </si>
-  <si>
-    <t>Термины учить, которые писали в тетрадях</t>
-  </si>
-  <si>
-    <t>Параграф 3. Выучить органелы, типы пластов и перерисовать клетку</t>
-  </si>
-  <si>
-    <t>Упр. 1.86; 1.94; 1.96 (а)</t>
-  </si>
-  <si>
-    <t>Упр. 52</t>
-  </si>
-  <si>
-    <t>Слова учить; Карточка, номера: 2, 7, 10.</t>
-  </si>
-  <si>
-    <t>Физ-ра</t>
-  </si>
-  <si>
-    <t>Лит-ра</t>
-  </si>
-  <si>
-    <t>Прочтитать параграф второй про Византаю</t>
-  </si>
-  <si>
-    <t>Параграф 33. Упражнения после параграфа: 2,3,4.</t>
-  </si>
-  <si>
-    <t>Упр. 1.87; 1.91; 1.96(б)</t>
-  </si>
-  <si>
-    <t>Параграф 3 читать</t>
-  </si>
-  <si>
-    <t>Упр. 68</t>
-  </si>
-  <si>
-    <t>Стр. 16-24 знать содержание</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Англиский язык</t>
-  </si>
-  <si>
-    <t>Дорисовать рисунок (Рисунок - это ваша мечта, цель.)</t>
-  </si>
-  <si>
-    <t>Устно / ?</t>
-  </si>
-  <si>
-    <t>Кателина Е.В.</t>
-  </si>
-  <si>
-    <t>Параграф 3 читать (возможно здесь что то дополнится. Я не уверен)</t>
-  </si>
-  <si>
-    <t>Дата: 17.09.2025</t>
-  </si>
-  <si>
-    <t>Дата: 16.09.2025</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Домашнее задание</t>
+    <t>Дата: 18.09.2025</t>
+  </si>
+  <si>
+    <t>(ВДИ)</t>
+  </si>
+  <si>
+    <t>Дата: 19.09.2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,12 +430,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -534,38 +468,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="20% - Акцент2" xfId="4" builtinId="34"/>
-    <cellStyle name="Вывод" xfId="5" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+  <cellStyles count="6">
+    <cellStyle name="Вывод" xfId="4" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="5" builtinId="8"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
@@ -871,265 +802,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="83" customWidth="1"/>
+    <col min="6" max="6" width="88.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="10" width="9.140625" customWidth="1"/>
@@ -1142,41 +825,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8" t="s">
-        <v>92</v>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="4"/>
       <c r="R1" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1184,20 +867,20 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="G2" s="9" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="G2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O2">
         <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1205,25 +888,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="O3">
         <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1231,25 +914,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O4">
         <v>9</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1257,25 +940,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1286,22 +969,22 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1311,55 +994,55 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>49</v>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1367,41 +1050,41 @@
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="8" t="s">
-        <v>91</v>
+      <c r="C10" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1409,25 +1092,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O11">
         <v>9</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1435,25 +1118,25 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1461,22 +1144,22 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="L13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="P13" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1484,30 +1167,30 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
         <v>50</v>
       </c>
-      <c r="L14" t="s">
-        <v>82</v>
-      </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>89</v>
+        <v>34</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1515,41 +1198,41 @@
         <v>0</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="8" t="s">
-        <v>90</v>
+      <c r="C16" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,22 +1240,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>63</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>97</v>
+        <v>31</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1580,19 +1263,19 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>48</v>
+      <c r="O18" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="P18" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1600,22 +1283,22 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="O19">
         <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="R19" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1626,22 +1309,22 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="P20" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="R20" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1649,22 +1332,22 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="O21">
         <v>16</v>
       </c>
       <c r="P21" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1672,22 +1355,22 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O22">
         <v>5</v>
       </c>
       <c r="P22" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="R22" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1695,27 +1378,27 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="P23" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="R23" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -1737,10 +1420,13 @@
       <c r="A28">
         <v>4</v>
       </c>
+      <c r="J28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -1748,41 +1434,41 @@
         <v>0</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="8" t="s">
-        <v>99</v>
+      <c r="C30" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -1790,20 +1476,20 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="G31" s="9" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="G31" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O31">
         <v>9</v>
       </c>
       <c r="P31" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -1811,25 +1497,25 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="O32">
         <v>12</v>
       </c>
       <c r="P32" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -1837,22 +1523,22 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O33">
         <v>9</v>
       </c>
       <c r="P33" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -1860,25 +1546,25 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="L34" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="R34" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -1889,22 +1575,22 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L35" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="O35">
         <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="R35" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -1915,30 +1601,30 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N36" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="P36" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="R36" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -1946,41 +1632,41 @@
         <v>0</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="8" t="s">
-        <v>123</v>
+      <c r="C38" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -1991,22 +1677,22 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L39" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="O39">
         <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>63</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>114</v>
+        <v>31</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2014,25 +1700,25 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="L40" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O40">
         <v>9</v>
       </c>
       <c r="P40" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2040,25 +1726,28 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F41" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="L41" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="R41" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2066,25 +1755,25 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
         <v>50</v>
-      </c>
-      <c r="L42" t="s">
-        <v>82</v>
       </c>
       <c r="O42">
         <v>37</v>
       </c>
       <c r="P42" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="R42" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2092,25 +1781,25 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="L43" t="s">
-        <v>60</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="P43" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="R43" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2121,22 +1810,22 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L44" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="O44">
         <v>5</v>
       </c>
       <c r="P44" t="s">
-        <v>68</v>
-      </c>
-      <c r="R44" s="13" t="s">
-        <v>114</v>
+        <v>36</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -2144,30 +1833,30 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="L45" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="O45">
         <v>5</v>
       </c>
       <c r="P45" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="R45" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -2175,182 +1864,571 @@
         <v>0</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="8" t="s">
-        <v>122</v>
+      <c r="C47" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="14" t="s">
-        <v>116</v>
+      <c r="K47" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>1</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F48" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="L48" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49">
+        <v>31</v>
+      </c>
+      <c r="R48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
+      <c r="B49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="L49" t="s">
-        <v>60</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="P49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50">
+        <v>32</v>
+      </c>
+      <c r="R49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>3</v>
       </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L50" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="O50">
         <v>12</v>
       </c>
       <c r="P50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51">
+        <v>33</v>
+      </c>
+      <c r="R50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>4</v>
       </c>
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
+      <c r="B51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="F51" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>49</v>
+        <v>75</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="L51" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N51" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="P51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52">
+        <v>34</v>
+      </c>
+      <c r="R51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>5</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
+      <c r="B52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
       <c r="L52" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O52">
         <v>16</v>
       </c>
       <c r="P52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53">
+        <v>35</v>
+      </c>
+      <c r="R52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="3"/>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L53" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="O53">
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="R53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="P57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58">
+        <v>5</v>
+      </c>
+      <c r="P58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" t="s">
+        <v>104</v>
+      </c>
+      <c r="M59" t="s">
+        <v>103</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>104</v>
+      </c>
+      <c r="M60" t="s">
+        <v>103</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" t="s">
+        <v>50</v>
+      </c>
+      <c r="O61">
+        <v>37</v>
+      </c>
+      <c r="P61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="G68" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" t="s">
+        <v>24</v>
+      </c>
+      <c r="O68">
+        <v>9</v>
+      </c>
+      <c r="P68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69">
+        <v>12</v>
+      </c>
+      <c r="P69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" t="s">
+        <v>24</v>
+      </c>
+      <c r="O70">
+        <v>9</v>
+      </c>
+      <c r="P70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72">
+        <v>5</v>
+      </c>
+      <c r="P72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" t="s">
+        <v>30</v>
+      </c>
+      <c r="P73" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Расписание.xlsx
+++ b/Расписание.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="109">
   <si>
     <t>Расписание</t>
   </si>
@@ -802,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,6 +2131,21 @@
       <c r="A57">
         <v>2</v>
       </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" t="s">
+        <v>50</v>
+      </c>
+      <c r="O57">
+        <v>38</v>
+      </c>
       <c r="P57" t="s">
         <v>32</v>
       </c>
@@ -2217,217 +2232,194 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M61" t="s">
-        <v>50</v>
-      </c>
-      <c r="O61">
-        <v>37</v>
-      </c>
-      <c r="P61" t="s">
-        <v>36</v>
+      <c r="A61" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>90</v>
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>3</v>
+      <c r="A65" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>90</v>
-      </c>
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q66" s="4"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q67" s="4"/>
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="G67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" t="s">
+        <v>24</v>
+      </c>
+      <c r="O67">
+        <v>9</v>
+      </c>
+      <c r="P67" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="G68" s="8" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="L68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O68">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O69">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O70">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="9"/>
+        <v>1</v>
+      </c>
       <c r="G71" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O72">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="N72" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" t="s">
+        <v>30</v>
       </c>
       <c r="P72" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L73" t="s">
-        <v>27</v>
-      </c>
-      <c r="N73" t="s">
-        <v>29</v>
-      </c>
-      <c r="O73" t="s">
-        <v>30</v>
-      </c>
-      <c r="P73" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Расписание.xlsx
+++ b/Расписание.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="112">
   <si>
     <t>Расписание</t>
   </si>
@@ -354,6 +354,15 @@
   </si>
   <si>
     <t>Дата: 19.09.2025</t>
+  </si>
+  <si>
+    <t>Параграф 4 читать</t>
+  </si>
+  <si>
+    <t>Стр 30; письм. вопрос 8; Стр. 32-38 чит. + пересказ</t>
+  </si>
+  <si>
+    <t>Дата: 20.09.2025</t>
   </si>
 </sst>
 </file>
@@ -802,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,8 +2335,11 @@
       <c r="B68" t="s">
         <v>4</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>18</v>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="L68" t="s">
         <v>23</v>
@@ -2346,6 +2358,9 @@
       <c r="B69" t="s">
         <v>3</v>
       </c>
+      <c r="F69" t="s">
+        <v>109</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>18</v>
       </c>
@@ -2366,7 +2381,9 @@
       <c r="B70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" t="s">
+        <v>94</v>
+      </c>
       <c r="G70" s="3" t="s">
         <v>19</v>
       </c>
@@ -2387,9 +2404,15 @@
       <c r="B71" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="G71" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
       <c r="L71" t="s">
         <v>26</v>
       </c>
@@ -2407,6 +2430,9 @@
       <c r="B72" t="s">
         <v>2</v>
       </c>
+      <c r="F72" t="s">
+        <v>96</v>
+      </c>
       <c r="G72" s="3" t="s">
         <v>19</v>
       </c>
@@ -2421,6 +2447,218 @@
       </c>
       <c r="P72" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75">
+        <v>5</v>
+      </c>
+      <c r="P75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" t="s">
+        <v>24</v>
+      </c>
+      <c r="O76">
+        <v>9</v>
+      </c>
+      <c r="P76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" t="s">
+        <v>50</v>
+      </c>
+      <c r="O78">
+        <v>37</v>
+      </c>
+      <c r="P78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" t="s">
+        <v>26</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s">
+        <v>110</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" t="s">
+        <v>26</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+      <c r="P81" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Расписание.xlsx
+++ b/Расписание.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="109">
   <si>
     <t>Расписание</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Сделать парашют (из бумаги или полиэтиленового пакета) либо чертёж подставки для телефона</t>
   </si>
   <si>
-    <t>Нет</t>
-  </si>
-  <si>
     <t>Верченко И.Н.</t>
   </si>
   <si>
@@ -348,12 +345,6 @@
   </si>
   <si>
     <t>Дата: 18.09.2025</t>
-  </si>
-  <si>
-    <t>(ВДИ)</t>
-  </si>
-  <si>
-    <t>Дата: 19.09.2025</t>
   </si>
   <si>
     <t>Параграф 4 читать</t>
@@ -485,7 +476,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -501,7 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Вывод" xfId="4" builtinId="21"/>
@@ -811,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,11 +2082,11 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>91</v>
@@ -2202,10 +2192,10 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>30</v>
@@ -2228,10 +2218,10 @@
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>30</v>
@@ -2249,9 +2239,6 @@
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -2264,106 +2251,99 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="7" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L66" s="4" t="s">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4" t="s">
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P66" s="4" t="s">
+      <c r="P67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="G67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67" t="s">
-        <v>24</v>
-      </c>
-      <c r="O67">
-        <v>9</v>
-      </c>
-      <c r="P67" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q67" s="4"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
       <c r="L68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O68">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
       <c r="L69" t="s">
         <v>24</v>
       </c>
@@ -2371,12 +2351,12 @@
         <v>9</v>
       </c>
       <c r="P69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
@@ -2384,8 +2364,8 @@
       <c r="F70" t="s">
         <v>94</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>19</v>
+      <c r="G70" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="L70" t="s">
         <v>25</v>
@@ -2394,270 +2374,101 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L71" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="P71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>6</v>
       </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L72" t="s">
-        <v>27</v>
-      </c>
-      <c r="N72" t="s">
-        <v>29</v>
-      </c>
-      <c r="O72" t="s">
-        <v>30</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+      <c r="P73" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q74" s="4"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" t="s">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" t="s">
         <v>26</v>
       </c>
-      <c r="O75">
+      <c r="O74">
         <v>5</v>
       </c>
-      <c r="P75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" t="s">
-        <v>24</v>
-      </c>
-      <c r="O76">
-        <v>9</v>
-      </c>
-      <c r="P76" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" t="s">
-        <v>25</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" t="s">
-        <v>50</v>
-      </c>
-      <c r="O78">
-        <v>37</v>
-      </c>
-      <c r="P78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L79" t="s">
-        <v>28</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P79" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" t="s">
-        <v>26</v>
-      </c>
-      <c r="O80">
-        <v>5</v>
-      </c>
-      <c r="P80" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81" t="s">
-        <v>110</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L81" t="s">
-        <v>26</v>
-      </c>
-      <c r="O81">
-        <v>5</v>
-      </c>
-      <c r="P81" t="s">
+      <c r="P74" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Расписание.xlsx
+++ b/Расписание.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="118">
   <si>
     <t>Расписание</t>
   </si>
@@ -353,7 +353,34 @@
     <t>Стр 30; письм. вопрос 8; Стр. 32-38 чит. + пересказ</t>
   </si>
   <si>
-    <t>Дата: 20.09.2025</t>
+    <t>Дата: 23.09.2025</t>
+  </si>
+  <si>
+    <t>Дата: 24.09.2025</t>
+  </si>
+  <si>
+    <t>Стр. 39-50 знать содержание</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>8:50 - 9:30</t>
+  </si>
+  <si>
+    <t>9:40 - 10:20</t>
+  </si>
+  <si>
+    <t>10:30 - 11:10</t>
+  </si>
+  <si>
+    <t>12:10 - 12:50</t>
+  </si>
+  <si>
+    <t>13:00 - 13:40</t>
+  </si>
+  <si>
+    <t>Упр. 1.155 (а), 1.156(а), 1.158, 1.162; Стр. 32-33 теория учить.</t>
   </si>
 </sst>
 </file>
@@ -476,7 +503,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -492,6 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Вывод" xfId="4" builtinId="21"/>
@@ -801,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,17 +2278,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2327,7 @@
       </c>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2325,15 +2353,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" t="s">
-        <v>106</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>18</v>
@@ -2354,7 +2376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2377,7 +2399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2400,7 +2422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -2423,7 +2445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -2449,7 +2471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2470,6 +2492,188 @@
       </c>
       <c r="P74" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>117</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" t="s">
+        <v>28</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="L79" t="s">
+        <v>87</v>
+      </c>
+      <c r="O79">
+        <v>12</v>
+      </c>
+      <c r="P79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" t="s">
+        <v>27</v>
+      </c>
+      <c r="N80" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" t="s">
+        <v>30</v>
+      </c>
+      <c r="P80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>106</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" t="s">
+        <v>24</v>
+      </c>
+      <c r="O81">
+        <v>16</v>
+      </c>
+      <c r="P81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82">
+        <v>5</v>
+      </c>
+      <c r="P82" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
